--- a/DataFrames/contatos_testes.xlsx
+++ b/DataFrames/contatos_testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Lima\CiênciaDeDados\Meus_projetos\AutomacaoWhatsApp\DataFrames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GitHub\AutomacaoWhatsapp\DataFrames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478531DD-D7AC-482B-AB72-63D8D943EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BFCD13-7C7C-42A5-BD81-B3DE4943783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{EB273594-819E-421A-8497-9D706A69B130}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,43 +401,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>21965301589</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5521965301589</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1">
+        <v>21994791946</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5521994791946</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <v>21976081792</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5521976081792</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1">
+        <v>21996774697</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5521996774697</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrames/contatos_testes.xlsx
+++ b/DataFrames/contatos_testes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GitHub\AutomacaoWhatsapp\DataFrames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BFCD13-7C7C-42A5-BD81-B3DE4943783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6962FB-DE09-4198-8CB7-1BE99BBE44D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{EB273594-819E-421A-8497-9D706A69B130}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Mensagem:</t>
-  </si>
-  <si>
-    <t>Telefone:</t>
-  </si>
-  <si>
-    <t>Olá, tudo bem?</t>
+    <t>phoneNumber</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,56 +382,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A04B67-4ED0-4D84-BE70-5077623EDDFA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>21965301589</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>21994791946</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>21976081792</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>21996774697</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrames/contatos_testes.xlsx
+++ b/DataFrames/contatos_testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\GitHub\AutomacaoWhatsapp\DataFrames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6962FB-DE09-4198-8CB7-1BE99BBE44D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB572D3-D510-4320-860E-DF66AE61E643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{EB273594-819E-421A-8497-9D706A69B130}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>(21)96530-1589</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,8 +402,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>21965301589</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
